--- a/lab5/task3/solutions_table_2.xlsx
+++ b/lab5/task3/solutions_table_2.xlsx
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +532,8 @@
     <col min="5" max="5" width="4.85546875" customWidth="1"/>
     <col min="6" max="6" width="4.5703125" customWidth="1"/>
     <col min="7" max="7" width="4.28515625" customWidth="1"/>
-    <col min="8" max="9" width="4.140625" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" customWidth="1"/>
     <col min="10" max="10" width="4.28515625" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
     <col min="12" max="12" width="4.42578125" customWidth="1"/>
@@ -2480,31 +2481,31 @@
       <c r="B30" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" s="13" t="s">
+      <c r="C30" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="18" t="s">
         <v>9</v>
       </c>
     </row>

--- a/lab5/task3/solutions_table_2.xlsx
+++ b/lab5/task3/solutions_table_2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="17">
   <si>
     <t>Условие</t>
   </si>
@@ -65,17 +65,28 @@
   <si>
     <t>IGNR</t>
   </si>
+  <si>
+    <t>Итоговая скидка</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,50 +177,53 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Акцент1" xfId="3" builtinId="31"/>
@@ -518,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH30"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,8 +544,8 @@
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="4" width="4.7109375" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" customWidth="1"/>
     <col min="8" max="8" width="4.7109375" customWidth="1"/>
     <col min="9" max="9" width="4.140625" customWidth="1"/>
     <col min="10" max="10" width="4.28515625" customWidth="1"/>
@@ -2262,17 +2276,17 @@
       <c r="D23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>9</v>
+      <c r="E23" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>10</v>
@@ -2297,11 +2311,11 @@
       <c r="D24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>9</v>
+      <c r="E24" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>10</v>
@@ -2507,6 +2521,38 @@
       </c>
       <c r="K30" s="18" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="4">
+        <v>5</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>17</v>
+      </c>
+      <c r="F31" s="4">
+        <v>12</v>
+      </c>
+      <c r="G31" s="4">
+        <v>15</v>
+      </c>
+      <c r="H31" s="4">
+        <v>10</v>
+      </c>
+      <c r="I31" s="4">
+        <v>8</v>
+      </c>
+      <c r="J31" s="4">
+        <v>3</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
